--- a/data_output/prism_passive/all_passive_out_strain_GMtend_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.780466770626541</v>
+        <v>10.780466801198479</v>
       </c>
       <c r="C2">
-        <v>2.4736470606216301</v>
+        <v>2.4736470656880329</v>
       </c>
       <c r="D2">
-        <v>16.611093427037119</v>
+        <v>16.611093459176615</v>
       </c>
       <c r="E2">
-        <v>2.8842977723502297</v>
+        <v>2.8842977907564964</v>
       </c>
       <c r="F2">
-        <v>26.707513156795532</v>
+        <v>26.70751316156953</v>
       </c>
       <c r="G2">
-        <v>6.6426566556800122</v>
+        <v>6.6426566896592529</v>
       </c>
       <c r="H2">
-        <v>-2.1879925148543684</v>
+        <v>-2.1879924978472043</v>
       </c>
       <c r="I2">
-        <v>6.3121444227020502</v>
+        <v>6.3121444369145667</v>
       </c>
       <c r="J2">
-        <v>5.6126446030085066</v>
+        <v>5.6126446395574643</v>
       </c>
       <c r="K2">
-        <v>-4.8912059090543041</v>
+        <v>-4.8912058893949775</v>
       </c>
       <c r="L2">
-        <v>5.2324200243801835</v>
+        <v>5.2324200572933526</v>
       </c>
       <c r="M2">
-        <v>2.8582838672884896</v>
+        <v>2.8582838913535866</v>
       </c>
       <c r="N2">
-        <v>0.24718602440616447</v>
+        <v>0.24718605515318265</v>
       </c>
       <c r="O2">
-        <v>4.7956703510990097</v>
+        <v>4.7956703745828726</v>
       </c>
       <c r="P2">
-        <v>5.7113603869965441</v>
+        <v>5.711360408886347</v>
       </c>
       <c r="Q2">
-        <v>1.4037004260380157</v>
+        <v>1.4037004485515654</v>
       </c>
       <c r="R2">
-        <v>0.94906454365646242</v>
+        <v>0.94906455405726253</v>
       </c>
       <c r="S2">
-        <v>7.8009703807685957</v>
+        <v>7.8009704083751812</v>
       </c>
       <c r="T2">
-        <v>-3.7859956425511321</v>
+        <v>-3.7859956222390982</v>
       </c>
       <c r="U2">
-        <v>-3.0072032000312698</v>
+        <v>-3.0072031849140646</v>
       </c>
       <c r="V2">
-        <v>-1.5479997030837489</v>
+        <v>-1.5479996799758806</v>
       </c>
       <c r="W2">
-        <v>7.1706272667246083</v>
+        <v>7.1706272901381487</v>
       </c>
       <c r="X2">
-        <v>-2.7471977351117514</v>
+        <v>-2.7471977208416156</v>
       </c>
       <c r="Y2">
-        <v>-4.3508394348142936</v>
+        <v>-4.3508394165288875</v>
       </c>
       <c r="Z2">
-        <v>3.7810918400479808E-2</v>
+        <v>3.7810930748992777E-2</v>
       </c>
       <c r="AA2">
-        <v>4.4641146746019755</v>
+        <v>4.4641147418852283</v>
       </c>
       <c r="AB2">
-        <v>3.3044978413168251</v>
+        <v>3.3044978599360184</v>
       </c>
       <c r="AC2">
-        <v>7.029920098180245</v>
+        <v>7.0299201113944498</v>
       </c>
       <c r="AD2">
-        <v>2.7223552329506218</v>
+        <v>2.7223552536731863</v>
       </c>
       <c r="AE2">
-        <v>-1.7208470202844495</v>
+        <v>-1.7208470056629499</v>
       </c>
       <c r="AF2">
-        <v>0.45174719339870684</v>
+        <v>0.45174721266348072</v>
       </c>
       <c r="AG2">
-        <v>2.2443438149698447</v>
+        <v>2.2443438314212925</v>
       </c>
       <c r="AH2">
-        <v>2.1271965791771561</v>
+        <v>2.1271965993173287</v>
       </c>
       <c r="AI2">
-        <v>21.381873965503413</v>
+        <v>21.381873992597246</v>
       </c>
       <c r="AJ2">
-        <v>4.0908602102055571</v>
+        <v>4.0908602359550903</v>
       </c>
       <c r="AK2">
-        <v>4.3695852776613515</v>
+        <v>4.369585311485773</v>
       </c>
       <c r="AL2">
-        <v>-4.1466304785902537</v>
+        <v>-4.1466304501395541</v>
       </c>
       <c r="AM2">
-        <v>0.92268539376859449</v>
+        <v>0.92268541915328883</v>
       </c>
       <c r="AN2">
-        <v>1.1490108106870214</v>
+        <v>1.1490108364141045</v>
       </c>
       <c r="AO2">
-        <v>-1.9871871918353934</v>
+        <v>-1.9871871663630647</v>
       </c>
       <c r="AP2">
-        <v>1.1112960924801889</v>
+        <v>1.1112961112620858</v>
       </c>
       <c r="AQ2">
-        <v>0.87424331522717691</v>
+        <v>0.87424334906645984</v>
       </c>
       <c r="AR2">
-        <v>2.6378621088214289</v>
+        <v>2.6378621158022053</v>
       </c>
       <c r="AS2">
-        <v>-0.67294942132048319</v>
+        <v>-0.67294939226690487</v>
       </c>
       <c r="AT2">
-        <v>-2.6781122904272836</v>
+        <v>-2.6781122696914617</v>
       </c>
       <c r="AU2">
-        <v>-0.13153136115585373</v>
+        <v>-0.13153134793871651</v>
       </c>
       <c r="AV2">
-        <v>2.8889227186640927</v>
+        <v>2.8889227539228406</v>
       </c>
       <c r="AW2">
-        <v>-1.648678888169653</v>
+        <v>-1.6486788528650982</v>
       </c>
       <c r="AX2">
-        <v>-1.8235077515932996</v>
+        <v>-1.823507716893018</v>
       </c>
       <c r="AY2">
-        <v>-1.3554848286964694</v>
+        <v>-1.3554848044113206</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.9526783634397784</v>
+        <v>9.9526783877065252</v>
       </c>
       <c r="C3">
-        <v>4.2694966168182793</v>
+        <v>4.269496628387345</v>
       </c>
       <c r="D3">
-        <v>-4.5070006112029946</v>
+        <v>-4.5070005926636911</v>
       </c>
       <c r="E3">
-        <v>-4.8282280260182118</v>
+        <v>-4.8282280174157055</v>
       </c>
       <c r="F3">
-        <v>11.250587190764367</v>
+        <v>11.250587207372172</v>
       </c>
       <c r="G3">
-        <v>0.76919852887615014</v>
+        <v>0.76919853761858137</v>
       </c>
       <c r="H3">
-        <v>2.1187888273699804</v>
+        <v>2.1187888558903816</v>
       </c>
       <c r="I3">
-        <v>1.2120532630686724</v>
+        <v>1.2120532791412251</v>
       </c>
       <c r="J3">
-        <v>2.362326720450822</v>
+        <v>2.3623267392119232</v>
       </c>
       <c r="K3">
-        <v>11.460066954327818</v>
+        <v>11.460066974726727</v>
       </c>
       <c r="L3">
-        <v>-0.57563587029326957</v>
+        <v>-0.57563585119492011</v>
       </c>
       <c r="M3">
-        <v>2.8999796680113636</v>
+        <v>2.9000355859964433</v>
       </c>
       <c r="N3">
-        <v>0.89084083977753104</v>
+        <v>0.89084086347142577</v>
       </c>
       <c r="O3">
-        <v>4.1866355843518557</v>
+        <v>4.186635601313264</v>
       </c>
       <c r="P3">
-        <v>-15.141749659914563</v>
+        <v>-15.141749641632352</v>
       </c>
       <c r="Q3">
-        <v>0.99505859446464151</v>
+        <v>0.99505861312491872</v>
       </c>
       <c r="R3">
-        <v>6.1116484641363318</v>
+        <v>6.1116484802723994</v>
       </c>
       <c r="S3">
-        <v>7.7173008772510707</v>
+        <v>7.717300889969601</v>
       </c>
       <c r="T3">
-        <v>6.2305499147332135</v>
+        <v>6.2305499302023399</v>
       </c>
       <c r="U3">
-        <v>-2.087399730951236</v>
+        <v>-2.0873997211310016</v>
       </c>
       <c r="V3">
-        <v>-4.3107116648448134</v>
+        <v>-4.3107116560456413</v>
       </c>
       <c r="W3">
-        <v>3.1114261148332094E-3</v>
+        <v>3.1114660389834981E-3</v>
       </c>
       <c r="X3">
-        <v>9.4304641357651686</v>
+        <v>9.4304641694709321</v>
       </c>
       <c r="Y3">
-        <v>5.2866427579649464</v>
+        <v>5.2866427752725738</v>
       </c>
       <c r="Z3">
-        <v>-3.0469740612122553</v>
+        <v>-3.0469740472620503</v>
       </c>
       <c r="AA3">
-        <v>2.3065590815473254</v>
+        <v>2.3065591111487529</v>
       </c>
       <c r="AB3">
-        <v>4.7922935369984305</v>
+        <v>4.7922935648996576</v>
       </c>
       <c r="AC3">
-        <v>2.1961141374247215</v>
+        <v>2.1961141777605402</v>
       </c>
       <c r="AD3">
-        <v>-0.10151350548319238</v>
+        <v>-0.10151347472021664</v>
       </c>
       <c r="AE3">
-        <v>-0.19859962209537291</v>
+        <v>-0.19859962295270417</v>
       </c>
       <c r="AF3">
-        <v>2.0414659720383832</v>
+        <v>2.0414660017032635</v>
       </c>
       <c r="AG3">
-        <v>3.4456566070655401</v>
+        <v>3.4456566413635654</v>
       </c>
       <c r="AH3">
-        <v>1.8984062651337568</v>
+        <v>1.8984062810850422</v>
       </c>
       <c r="AI3">
-        <v>5.3038597280721635</v>
+        <v>5.3038597624601804</v>
       </c>
       <c r="AJ3">
-        <v>-0.42380086828710478</v>
+        <v>-0.42380083421087766</v>
       </c>
       <c r="AK3">
-        <v>7.0775376168564481</v>
+        <v>7.0775376286516547</v>
       </c>
       <c r="AL3">
-        <v>-3.1144715400900798</v>
+        <v>-3.1144715153621663</v>
       </c>
       <c r="AM3">
-        <v>1.5269549325616094</v>
+        <v>1.5269549715444084</v>
       </c>
       <c r="AN3">
-        <v>7.6170808157069949</v>
+        <v>7.6170808455821346</v>
       </c>
       <c r="AO3">
-        <v>10.617533772623132</v>
+        <v>10.617533811606613</v>
       </c>
       <c r="AP3">
-        <v>-4.1647021883516642</v>
+        <v>-4.1647021604414904</v>
       </c>
       <c r="AQ3">
-        <v>-1.5072420407716991</v>
+        <v>-1.5072420205796297</v>
       </c>
       <c r="AR3">
-        <v>0.23777396453021257</v>
+        <v>0.23777398396076857</v>
       </c>
       <c r="AS3">
-        <v>6.1516173444959685</v>
+        <v>6.1516173634895344</v>
       </c>
       <c r="AT3">
-        <v>-0.23469651972444286</v>
+        <v>-0.23469648325296094</v>
       </c>
       <c r="AU3">
-        <v>-1.0275915820039239</v>
+        <v>-1.0275915516066658</v>
       </c>
       <c r="AV3">
-        <v>-1.4048382404083666</v>
+        <v>-1.4048382185941819</v>
       </c>
       <c r="AW3">
-        <v>1.482912880373634E-2</v>
+        <v>1.4829174291531367E-2</v>
       </c>
       <c r="AX3">
-        <v>-16.632742506597239</v>
+        <v>-16.632742480540813</v>
       </c>
       <c r="AY3">
-        <v>-9.4023448325740215</v>
+        <v>-9.4023448163788768</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,310 +401,304 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>10.780466801198479</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.4736470656880329</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>16.611093459176615</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.8842977907564964</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>26.70751316156953</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>6.6426566896592529</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-2.1879924978472043</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.3121444369145667</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.6126446395574643</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-4.8912058893949775</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.2324200572933526</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2.8582838913535866</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.24718605515318265</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4.7956703745828726</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5.711360408886347</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.4037004485515654</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.94906455405726253</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>7.8009704083751812</v>
+        <v>7.8009902497384944</v>
       </c>
       <c r="T2">
-        <v>-3.7859956222390982</v>
+        <v>-3.7859802504434601</v>
       </c>
       <c r="U2">
-        <v>-3.0072031849140646</v>
+        <v>-3.0071841480905181</v>
       </c>
       <c r="V2">
-        <v>-1.5479996799758806</v>
+        <v>-1.5479834864348863</v>
       </c>
       <c r="W2">
-        <v>7.1706272901381487</v>
+        <v>7.1706442176968181</v>
       </c>
       <c r="X2">
-        <v>-2.7471977208416156</v>
+        <v>-2.7472175736604107</v>
       </c>
       <c r="Y2">
-        <v>-4.3508394165288875</v>
+        <v>-4.3508564925886821</v>
       </c>
       <c r="Z2">
-        <v>3.7810930748992777E-2</v>
+        <v>3.7790405066770151E-2</v>
       </c>
       <c r="AA2">
-        <v>4.4641147418852283</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>3.3044978599360184</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.0299201113944498</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>2.7223552536731863</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-1.7208470056629499</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.45174721266348072</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.2443438314212925</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.1271965993173287</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>21.381873992597246</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>4.0908602359550903</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>4.369585311485773</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-4.1466304501395541</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.92268541915328883</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.1490108364141045</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-1.9871871663630647</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.1112961112620858</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.87424334906645984</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>2.6378621158022053</v>
+        <v>2.6378805547684552</v>
       </c>
       <c r="AS2">
-        <v>-0.67294939226690487</v>
+        <v>-0.67293357920182617</v>
       </c>
       <c r="AT2">
         <v>-2.6781122696914617</v>
       </c>
       <c r="AU2">
-        <v>-0.13153134793871651</v>
+        <v>-0.13151492789730776</v>
       </c>
       <c r="AV2">
         <v>2.8889227539228406</v>
       </c>
       <c r="AW2">
-        <v>-1.6486788528650982</v>
+        <v>-1.6486995654930054</v>
       </c>
       <c r="AX2">
-        <v>-1.823507716893018</v>
+        <v>-1.8235247195732478</v>
       </c>
       <c r="AY2">
         <v>-1.3554848044113206</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>9.9526783877065252</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.269496628387345</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-4.5070005926636911</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-4.8282280174157055</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>11.250587207372172</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.76919853761858137</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.1187888558903816</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.2120532791412251</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.3623267392119232</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>11.460066974726727</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.57563585119492011</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.9000355859964433</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.89084086347142577</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4.186635601313264</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-15.141749641632352</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.99505861312491872</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6.1116484802723994</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>7.717300889969601</v>
       </c>
       <c r="T3">
-        <v>6.2305499302023399</v>
+        <v>6.2305666902141583</v>
       </c>
       <c r="U3">
-        <v>-2.0873997211310016</v>
+        <v>-2.0873805128261416</v>
       </c>
       <c r="V3">
-        <v>-4.3107116560456413</v>
+        <v>-4.3106971602166348</v>
       </c>
       <c r="W3">
-        <v>3.1114660389834981E-3</v>
+        <v>3.1288118004588511E-3</v>
       </c>
       <c r="X3">
-        <v>9.4304641694709321</v>
+        <v>9.4304885929260216</v>
       </c>
       <c r="Y3">
-        <v>5.2866427752725738</v>
+        <v>5.2866216651634801</v>
       </c>
       <c r="Z3">
-        <v>-3.0469740472620503</v>
+        <v>-3.0469928660939551</v>
       </c>
       <c r="AA3">
-        <v>2.3065591111487529</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>4.7922935648996576</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>2.1961141777605402</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-0.10151347472021664</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-0.19859962295270417</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.0414660017032635</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>3.4456566413635654</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.8984062810850422</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>5.3038597624601804</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.42380083421087766</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>7.0775376286516547</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-3.1144715153621663</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.5269549715444084</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>7.6170808455821346</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>10.617533811606613</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-4.1647021604414904</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-1.5072420205796297</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.23777398396076857</v>
+        <v>0.23779246593571657</v>
       </c>
       <c r="AS3">
         <v>6.1516173634895344</v>
       </c>
       <c r="AT3">
-        <v>-0.23469648325296094</v>
+        <v>-0.23467650341659499</v>
       </c>
       <c r="AU3">
-        <v>-1.0275915516066658</v>
+        <v>-1.0275766572594465</v>
       </c>
       <c r="AV3">
-        <v>-1.4048382185941819</v>
+        <v>-1.4048548093017128</v>
       </c>
       <c r="AW3">
-        <v>1.4829174291531367E-2</v>
+        <v>1.4849851398470915E-2</v>
       </c>
       <c r="AX3">
-        <v>-16.632742480540813</v>
+        <v>-16.632757524290383</v>
       </c>
       <c r="AY3">
         <v>-9.4023448163788768</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.780489567372529</v>
+        <v>4.7956491767371778</v>
       </c>
       <c r="C2">
-        <v>1.587633143792412</v>
+        <v>0.94907978438085128</v>
       </c>
       <c r="D2">
-        <v>16.611093427037119</v>
+        <v>1.1489913043664497</v>
       </c>
       <c r="E2">
-        <v>-0.50966662727997292</v>
+        <v>0.87424334906645984</v>
       </c>
       <c r="F2">
         <v>26.707539800226392</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.9526783634397784</v>
+        <v>4.186635601313264</v>
       </c>
       <c r="C3">
-        <v>0.24251234705251534</v>
+        <v>6.111665006398896</v>
       </c>
       <c r="D3">
-        <v>-4.506979261237646</v>
+        <v>7.6170594777394296</v>
       </c>
       <c r="E3">
-        <v>-4.828213854635087</v>
+        <v>-1.5411745973091002</v>
       </c>
       <c r="F3">
         <v>11.250565136945541</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.780489567372529</v>
+        <v>18.503661238465703</v>
       </c>
       <c r="C2">
-        <v>1.587633143792412</v>
+        <v>4.7956491767371778</v>
       </c>
       <c r="D2">
-        <v>16.611093427037119</v>
+        <v>5.1091101460493578</v>
       </c>
       <c r="E2">
-        <v>-0.50966662727997292</v>
+        <v>1.1489913043664497</v>
       </c>
       <c r="F2">
         <v>26.707539800226392</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.9526783634397784</v>
+        <v>32.099311122121442</v>
       </c>
       <c r="C3">
-        <v>0.24251234705251534</v>
+        <v>4.186635601313264</v>
       </c>
       <c r="D3">
-        <v>-4.506979261237646</v>
+        <v>-4.643452276585287</v>
       </c>
       <c r="E3">
-        <v>-4.828213854635087</v>
+        <v>7.6170594777394296</v>
       </c>
       <c r="F3">
         <v>11.250565136945541</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>10.780489597944472</v>
+      </c>
+      <c r="C2">
+        <v>1.5876331488150093</v>
+      </c>
+      <c r="D2">
+        <v>16.611093459176615</v>
+      </c>
+      <c r="E2">
+        <v>-0.50966660948089504</v>
+      </c>
+      <c r="F2">
+        <v>26.707539805000398</v>
+      </c>
+      <c r="G2">
+        <v>6.6426770859852589</v>
+      </c>
+      <c r="H2">
+        <v>-2.188009894806584</v>
+      </c>
+      <c r="I2">
+        <v>6.3121648638002794</v>
+      </c>
+      <c r="J2">
+        <v>5.6126228209452096</v>
+      </c>
+      <c r="K2">
+        <v>-4.8912235618998565</v>
+      </c>
+      <c r="L2">
+        <v>5.2324393026196212</v>
+      </c>
+      <c r="M2">
+        <v>2.8582638081687235</v>
+      </c>
+      <c r="N2">
         <v>18.503661238465703</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>4.7956491767371778</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>5.711360408886347</v>
+      </c>
+      <c r="Q2">
+        <v>-13.267464357532385</v>
+      </c>
+      <c r="R2">
+        <v>0.94907978438085128</v>
+      </c>
+      <c r="S2">
+        <v>7.8009902497384944</v>
+      </c>
+      <c r="T2">
+        <v>-3.7859802504434601</v>
+      </c>
+      <c r="U2">
+        <v>-3.0071841480905181</v>
+      </c>
+      <c r="V2">
+        <v>-1.5479834864348863</v>
+      </c>
+      <c r="W2">
+        <v>7.1706442176968181</v>
+      </c>
+      <c r="X2">
+        <v>-2.7472175736604107</v>
+      </c>
+      <c r="Y2">
+        <v>-4.3508564925886821</v>
+      </c>
+      <c r="Z2">
+        <v>3.7790405066770151E-2</v>
+      </c>
+      <c r="AA2">
+        <v>4.4640940222953693</v>
+      </c>
+      <c r="AB2">
+        <v>24.968001770501182</v>
+      </c>
+      <c r="AC2">
+        <v>7.0298956028026254</v>
+      </c>
+      <c r="AD2">
+        <v>6.9795752214789815</v>
+      </c>
+      <c r="AE2">
+        <v>-1.7208470056629499</v>
+      </c>
+      <c r="AF2">
+        <v>0.45176633057852511</v>
+      </c>
+      <c r="AG2">
+        <v>2.2443438314212925</v>
+      </c>
+      <c r="AH2">
+        <v>2.127215824232874</v>
+      </c>
+      <c r="AI2">
+        <v>21.381899692911851</v>
+      </c>
+      <c r="AJ2">
+        <v>4.090840388802846</v>
+      </c>
+      <c r="AK2">
+        <v>4.369566203688005</v>
+      </c>
+      <c r="AL2">
+        <v>-4.1466304501395541</v>
+      </c>
+      <c r="AM2">
         <v>5.1091101460493578</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>1.1489913043664497</v>
       </c>
-      <c r="F2">
-        <v>26.707539800226392</v>
-      </c>
-      <c r="G2">
-        <v>6.6426770520060119</v>
-      </c>
-      <c r="H2">
-        <v>-2.188009911813745</v>
-      </c>
-      <c r="I2">
-        <v>6.3121648495877594</v>
-      </c>
-      <c r="J2">
-        <v>5.6126227843962591</v>
-      </c>
-      <c r="K2">
-        <v>-4.8912235815591796</v>
-      </c>
-      <c r="L2">
-        <v>5.232439269706445</v>
-      </c>
-      <c r="M2">
-        <v>2.8582637841036314</v>
-      </c>
-      <c r="N2">
-        <v>18.503661202119201</v>
-      </c>
-      <c r="O2">
-        <v>4.7956491532533212</v>
-      </c>
-      <c r="P2">
-        <v>5.7113603869965441</v>
-      </c>
-      <c r="Q2">
-        <v>-13.267464376788658</v>
-      </c>
-      <c r="R2">
-        <v>0.94907977398004961</v>
-      </c>
-      <c r="S2">
-        <v>7.8009902221319036</v>
-      </c>
-      <c r="T2">
-        <v>-3.7859802707554979</v>
-      </c>
-      <c r="U2">
-        <v>-3.007184163207727</v>
-      </c>
-      <c r="V2">
-        <v>-1.5479835095427588</v>
-      </c>
-      <c r="W2">
-        <v>7.170644194283275</v>
-      </c>
-      <c r="X2">
-        <v>-2.7472175879305438</v>
-      </c>
-      <c r="Y2">
-        <v>-4.3508565108740838</v>
-      </c>
-      <c r="Z2">
-        <v>3.7790392718259708E-2</v>
-      </c>
-      <c r="AA2">
-        <v>4.464093955012129</v>
-      </c>
-      <c r="AB2">
-        <v>24.968001747977446</v>
-      </c>
-      <c r="AC2">
-        <v>7.029895589588425</v>
-      </c>
-      <c r="AD2">
-        <v>6.9795751998975932</v>
-      </c>
-      <c r="AE2">
-        <v>-1.7208470202844495</v>
-      </c>
-      <c r="AF2">
-        <v>0.4517663113137475</v>
-      </c>
-      <c r="AG2">
-        <v>2.2443438149698447</v>
-      </c>
-      <c r="AH2">
-        <v>2.1272158040926978</v>
-      </c>
-      <c r="AI2">
-        <v>21.381899665818015</v>
-      </c>
-      <c r="AJ2">
-        <v>4.0908403630533172</v>
-      </c>
-      <c r="AK2">
-        <v>4.3695661698635897</v>
-      </c>
-      <c r="AL2">
-        <v>-4.1466304785902537</v>
-      </c>
-      <c r="AM2">
-        <v>5.1091101196116675</v>
-      </c>
-      <c r="AN2">
-        <v>1.1489912786393714</v>
-      </c>
       <c r="AO2">
-        <v>-1.9871871918353934</v>
+        <v>-1.9871871663630647</v>
       </c>
       <c r="AP2">
-        <v>0.77156138629937221</v>
+        <v>0.77156140129693362</v>
       </c>
       <c r="AQ2">
-        <v>0.87424331522717691</v>
+        <v>0.87424334906645984</v>
       </c>
       <c r="AR2">
-        <v>2.637880547787677</v>
+        <v>2.6378805547684552</v>
       </c>
       <c r="AS2">
-        <v>-0.67293360825540915</v>
+        <v>-0.67293357920182617</v>
       </c>
       <c r="AT2">
-        <v>-2.6781122904272836</v>
+        <v>-2.6781122696914617</v>
       </c>
       <c r="AU2">
-        <v>-0.13151494111444717</v>
+        <v>-0.13151492789730776</v>
       </c>
       <c r="AV2">
-        <v>2.8889227186640927</v>
+        <v>2.8889227539228406</v>
       </c>
       <c r="AW2">
-        <v>-1.6486996007975527</v>
+        <v>-1.6486995654930054</v>
       </c>
       <c r="AX2">
-        <v>-1.8235247542735236</v>
+        <v>-1.8235247195732478</v>
       </c>
       <c r="AY2">
-        <v>-1.3554848286964694</v>
+        <v>-1.3554848044113206</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>9.9526783877065252</v>
+      </c>
+      <c r="C3">
+        <v>0.24251235817477254</v>
+      </c>
+      <c r="D3">
+        <v>-4.5069792426983382</v>
+      </c>
+      <c r="E3">
+        <v>-4.828213846032579</v>
+      </c>
+      <c r="F3">
+        <v>11.250565153553342</v>
+      </c>
+      <c r="G3">
+        <v>0.76921745348049209</v>
+      </c>
+      <c r="H3">
+        <v>2.1187699881242197</v>
+      </c>
+      <c r="I3">
+        <v>1.2120338854819681</v>
+      </c>
+      <c r="J3">
+        <v>1.0123596164954352</v>
+      </c>
+      <c r="K3">
+        <v>11.460066974726727</v>
+      </c>
+      <c r="L3">
+        <v>-0.57565410778245052</v>
+      </c>
+      <c r="M3">
+        <v>2.9000355859964433</v>
+      </c>
+      <c r="N3">
         <v>32.099311122121442</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>4.186635601313264</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-15.141736372245928</v>
+      </c>
+      <c r="Q3">
+        <v>0.99504045330203983</v>
+      </c>
+      <c r="R3">
+        <v>6.111665006398896</v>
+      </c>
+      <c r="S3">
+        <v>7.717300889969601</v>
+      </c>
+      <c r="T3">
+        <v>6.2305666902141583</v>
+      </c>
+      <c r="U3">
+        <v>-2.0873805128261416</v>
+      </c>
+      <c r="V3">
+        <v>-4.3106971602166348</v>
+      </c>
+      <c r="W3">
+        <v>0.19614534344525913</v>
+      </c>
+      <c r="X3">
+        <v>9.4304885929260216</v>
+      </c>
+      <c r="Y3">
+        <v>5.2866216651634801</v>
+      </c>
+      <c r="Z3">
+        <v>-3.0469928660939551</v>
+      </c>
+      <c r="AA3">
+        <v>2.3065800915680645</v>
+      </c>
+      <c r="AB3">
+        <v>6.3917581718718335</v>
+      </c>
+      <c r="AC3">
+        <v>2.1960898796046511</v>
+      </c>
+      <c r="AD3">
+        <v>-0.10151347472021664</v>
+      </c>
+      <c r="AE3">
+        <v>-0.1985813035246988</v>
+      </c>
+      <c r="AF3">
+        <v>2.0414855798020599</v>
+      </c>
+      <c r="AG3">
+        <v>3.4456566413635654</v>
+      </c>
+      <c r="AH3">
+        <v>2.2747716631788863</v>
+      </c>
+      <c r="AI3">
+        <v>4.2803547287769517</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.42378262331693034</v>
+      </c>
+      <c r="AK3">
+        <v>7.0775174748954566</v>
+      </c>
+      <c r="AL3">
+        <v>-3.1144715153621663</v>
+      </c>
+      <c r="AM3">
         <v>-4.643452276585287</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>7.6170594777394296</v>
       </c>
-      <c r="F3">
-        <v>11.250565136945541</v>
-      </c>
-      <c r="G3">
-        <v>0.7692174447380592</v>
-      </c>
-      <c r="H3">
-        <v>2.1187699596038239</v>
-      </c>
-      <c r="I3">
-        <v>1.2120338694094188</v>
-      </c>
-      <c r="J3">
-        <v>1.0123595979817575</v>
-      </c>
-      <c r="K3">
-        <v>11.460066954327818</v>
-      </c>
-      <c r="L3">
-        <v>-0.57565412688079642</v>
-      </c>
-      <c r="M3">
-        <v>2.8999796680113636</v>
-      </c>
-      <c r="N3">
-        <v>32.099311091098336</v>
-      </c>
-      <c r="O3">
-        <v>4.1866355843518557</v>
-      </c>
-      <c r="P3">
-        <v>-15.141736390528141</v>
-      </c>
-      <c r="Q3">
-        <v>0.99504043464176595</v>
-      </c>
-      <c r="R3">
-        <v>6.1116649902628275</v>
-      </c>
-      <c r="S3">
-        <v>7.7173008772510707</v>
-      </c>
-      <c r="T3">
-        <v>6.2305666747450292</v>
-      </c>
-      <c r="U3">
-        <v>-2.0873805226463782</v>
-      </c>
-      <c r="V3">
-        <v>-4.3106971690158078</v>
-      </c>
-      <c r="W3">
-        <v>0.19614529569156608</v>
-      </c>
-      <c r="X3">
-        <v>9.430488559220251</v>
-      </c>
-      <c r="Y3">
-        <v>5.2866216478558563</v>
-      </c>
-      <c r="Z3">
-        <v>-3.0469928800441575</v>
-      </c>
-      <c r="AA3">
-        <v>2.3065800619666303</v>
-      </c>
-      <c r="AB3">
-        <v>6.3917581435447444</v>
-      </c>
-      <c r="AC3">
-        <v>2.1960898392688422</v>
-      </c>
-      <c r="AD3">
-        <v>-0.10151350548319238</v>
-      </c>
-      <c r="AE3">
-        <v>-0.19858130266736732</v>
-      </c>
-      <c r="AF3">
-        <v>2.0414855501371738</v>
-      </c>
-      <c r="AG3">
-        <v>3.4456566070655401</v>
-      </c>
-      <c r="AH3">
-        <v>2.2747716486822762</v>
-      </c>
-      <c r="AI3">
-        <v>4.2803546947231688</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.42378265739316356</v>
-      </c>
-      <c r="AK3">
-        <v>7.0775174631002509</v>
-      </c>
-      <c r="AL3">
-        <v>-3.1144715400900798</v>
-      </c>
-      <c r="AM3">
-        <v>-4.6434523131988659</v>
-      </c>
-      <c r="AN3">
-        <v>7.6170594478642952</v>
-      </c>
       <c r="AO3">
-        <v>10.617533772623132</v>
+        <v>10.617533811606613</v>
       </c>
       <c r="AP3">
-        <v>-4.1647184899549012</v>
+        <v>-4.164718462044732</v>
       </c>
       <c r="AQ3">
-        <v>-1.5411746158230195</v>
+        <v>-1.5411745973091002</v>
       </c>
       <c r="AR3">
-        <v>0.23779244650515702</v>
+        <v>0.23779246593571657</v>
       </c>
       <c r="AS3">
-        <v>6.1516173444959685</v>
+        <v>6.1516173634895344</v>
       </c>
       <c r="AT3">
-        <v>-0.23467653988808412</v>
+        <v>-0.23467650341659499</v>
       </c>
       <c r="AU3">
-        <v>-1.0275766876567092</v>
+        <v>-1.0275766572594465</v>
       </c>
       <c r="AV3">
-        <v>-1.4048548311158937</v>
+        <v>-1.4048548093017128</v>
       </c>
       <c r="AW3">
-        <v>1.4849805910666486E-2</v>
+        <v>1.4849851398470915E-2</v>
       </c>
       <c r="AX3">
-        <v>-16.632757550346806</v>
+        <v>-16.632757524290383</v>
       </c>
       <c r="AY3">
-        <v>-9.4023448325740215</v>
+        <v>-9.4023448163788768</v>
       </c>
     </row>
   </sheetData>
